--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/15/seed3/result_data_KNN.xlsx
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.276</v>
+        <v>-12.342</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -604,7 +604,7 @@
         <v>9.35</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.09</v>
+        <v>-12.179</v>
       </c>
       <c r="D10" t="n">
         <v>-8.93</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.706</v>
+        <v>-12.53</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.709999999999999</v>
+        <v>-7.831999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.706</v>
+        <v>-12.157</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
